--- a/Qt Example.xlsx
+++ b/Qt Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work_space\Qt-Example-grow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584D8DB4-BB94-423D-916D-185C1B2552DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374CC20-7006-474C-A81C-EFAA3515EA1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="432">
   <si>
     <t>示例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2218,6 +2218,159 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,12 +2437,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2306,153 +2453,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2791,7 +2791,7 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="44" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3032,7 +3032,7 @@
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>53</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="103"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="11" t="s">
         <v>59</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -3094,7 +3094,7 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="106"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="106"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="12" t="s">
         <v>69</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="12" t="s">
         <v>71</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="50" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -3136,7 +3136,7 @@
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="13" t="s">
         <v>76</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="13" t="s">
         <v>78</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="13" t="s">
         <v>80</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="110"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="13" t="s">
         <v>82</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="53" t="s">
         <v>429</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -3188,7 +3188,7 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="14" t="s">
         <v>87</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="14" t="s">
         <v>89</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="14" t="s">
         <v>91</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="14" t="s">
         <v>93</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="111"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="14" t="s">
         <v>95</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="112"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="14" t="s">
         <v>97</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="39" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -3260,7 +3260,7 @@
       <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="114"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="15" t="s">
         <v>101</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="59" t="s">
         <v>120</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -3282,7 +3282,7 @@
       <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="16" t="s">
         <v>106</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="16" t="s">
         <v>108</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="16" t="s">
         <v>110</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="87"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="16" t="s">
         <v>112</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="87"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="16" t="s">
         <v>114</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="16" t="s">
         <v>116</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="88"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="16" t="s">
         <v>118</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="62" t="s">
         <v>131</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -3364,7 +3364,7 @@
       <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="17" t="s">
         <v>123</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="17" t="s">
         <v>125</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="17" t="s">
         <v>127</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="91"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="17" t="s">
         <v>129</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="D62" s="17"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="65" t="s">
         <v>146</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -3416,7 +3416,7 @@
       <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="93"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="18" t="s">
         <v>134</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="93"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="18" t="s">
         <v>136</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="93"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="18" t="s">
         <v>138</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="93"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="18" t="s">
         <v>140</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="93"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="18" t="s">
         <v>142</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="94"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="18" t="s">
         <v>144</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="68" t="s">
         <v>153</v>
       </c>
       <c r="B70" s="19" t="s">
@@ -3488,7 +3488,7 @@
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="96"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="19" t="s">
         <v>149</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="97"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="19" t="s">
         <v>151</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="71" t="s">
         <v>182</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -3520,7 +3520,7 @@
       <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="20" t="s">
         <v>156</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="20" t="s">
         <v>158</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="99"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="20" t="s">
         <v>160</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="99"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="20" t="s">
         <v>162</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="20" t="s">
         <v>164</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="99"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="20" t="s">
         <v>166</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="20" t="s">
         <v>168</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="20" t="s">
         <v>170</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="99"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="20" t="s">
         <v>172</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="99"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="20" t="s">
         <v>174</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="99"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="20" t="s">
         <v>176</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="99"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="20" t="s">
         <v>178</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="100"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="20" t="s">
         <v>180</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -3662,7 +3662,7 @@
       <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="10" t="s">
         <v>185</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="10" t="s">
         <v>187</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="10" t="s">
         <v>189</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="74" t="s">
         <v>428</v>
       </c>
       <c r="B91" s="21" t="s">
@@ -3702,7 +3702,7 @@
       <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="69"/>
+      <c r="A92" s="75"/>
       <c r="B92" s="21" t="s">
         <v>193</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="70"/>
+      <c r="A93" s="76"/>
       <c r="B93" s="21" t="s">
         <v>194</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="71" t="s">
+      <c r="A94" s="77" t="s">
         <v>205</v>
       </c>
       <c r="B94" s="22" t="s">
@@ -3730,7 +3730,7 @@
       <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="72"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="22" t="s">
         <v>197</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="72"/>
+      <c r="A96" s="78"/>
       <c r="B96" s="22" t="s">
         <v>199</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="72"/>
+      <c r="A97" s="78"/>
       <c r="B97" s="22" t="s">
         <v>200</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="72"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="22" t="s">
         <v>201</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="73"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="22" t="s">
         <v>203</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="74" t="s">
+      <c r="A100" s="80" t="s">
         <v>221</v>
       </c>
       <c r="B100" s="23" t="s">
@@ -3788,7 +3788,7 @@
       <c r="D100" s="23"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="75"/>
+      <c r="A101" s="81"/>
       <c r="B101" s="23" t="s">
         <v>208</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="D101" s="23"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="75"/>
+      <c r="A102" s="81"/>
       <c r="B102" s="23" t="s">
         <v>210</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="D102" s="23"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="75"/>
+      <c r="A103" s="81"/>
       <c r="B103" s="23" t="s">
         <v>212</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="D103" s="23"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="75"/>
+      <c r="A104" s="81"/>
       <c r="B104" s="23" t="s">
         <v>214</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="D104" s="23"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="75"/>
+      <c r="A105" s="81"/>
       <c r="B105" s="23" t="s">
         <v>216</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="D105" s="23"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="75"/>
+      <c r="A106" s="81"/>
       <c r="B106" s="23" t="s">
         <v>218</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="D106" s="23"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="76"/>
+      <c r="A107" s="82"/>
       <c r="B107" s="23" t="s">
         <v>219</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="D107" s="23"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="83" t="s">
         <v>245</v>
       </c>
       <c r="B108" s="24" t="s">
@@ -3868,7 +3868,7 @@
       <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="78"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="24" t="s">
         <v>224</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="78"/>
+      <c r="A110" s="84"/>
       <c r="B110" s="24" t="s">
         <v>226</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="D110" s="24"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="78"/>
+      <c r="A111" s="84"/>
       <c r="B111" s="24" t="s">
         <v>228</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="D111" s="24"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="78"/>
+      <c r="A112" s="84"/>
       <c r="B112" s="24" t="s">
         <v>230</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="D112" s="24"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="78"/>
+      <c r="A113" s="84"/>
       <c r="B113" s="24" t="s">
         <v>232</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="D113" s="24"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="78"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="24" t="s">
         <v>234</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="D114" s="24"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="78"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="24" t="s">
         <v>236</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="D115" s="24"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="78"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="24" t="s">
         <v>238</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="D116" s="24"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="78"/>
+      <c r="A117" s="84"/>
       <c r="B117" s="24" t="s">
         <v>240</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="D117" s="24"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="78"/>
+      <c r="A118" s="84"/>
       <c r="B118" s="24" t="s">
         <v>241</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="D118" s="24"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="78"/>
+      <c r="A119" s="84"/>
       <c r="B119" s="24" t="s">
         <v>242</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="D119" s="24"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="79"/>
+      <c r="A120" s="85"/>
       <c r="B120" s="24" t="s">
         <v>243</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="D120" s="24"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="80" t="s">
+      <c r="A121" s="86" t="s">
         <v>430</v>
       </c>
       <c r="B121" s="25" t="s">
@@ -3994,7 +3994,7 @@
       <c r="D121" s="25"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="81"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="25" t="s">
         <v>248</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="D122" s="25"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="81"/>
+      <c r="A123" s="87"/>
       <c r="B123" s="25" t="s">
         <v>250</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="81"/>
+      <c r="A124" s="87"/>
       <c r="B124" s="25" t="s">
         <v>252</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="D124" s="25"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="81"/>
+      <c r="A125" s="87"/>
       <c r="B125" s="25" t="s">
         <v>254</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="D125" s="25"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="81"/>
+      <c r="A126" s="87"/>
       <c r="B126" s="25" t="s">
         <v>255</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="D126" s="25"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="81"/>
+      <c r="A127" s="87"/>
       <c r="B127" s="25" t="s">
         <v>257</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="D127" s="25"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="81"/>
+      <c r="A128" s="87"/>
       <c r="B128" s="25" t="s">
         <v>259</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="D128" s="25"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="82"/>
+      <c r="A129" s="88"/>
       <c r="B129" s="25" t="s">
         <v>261</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="D129" s="25"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="83" t="s">
+      <c r="A130" s="56" t="s">
         <v>277</v>
       </c>
       <c r="B130" s="26" t="s">
@@ -4084,7 +4084,7 @@
       <c r="D130" s="26"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="84"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="26" t="s">
         <v>265</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="D131" s="26"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="84"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="26" t="s">
         <v>267</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="D132" s="26"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="84"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="26" t="s">
         <v>269</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="D133" s="26"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="84"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="26" t="s">
         <v>271</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="D134" s="26"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="84"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="26" t="s">
         <v>273</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="D135" s="26"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="84"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="26" t="s">
         <v>274</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="D136" s="26"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="85"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="26" t="s">
         <v>275</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="50" t="s">
+      <c r="A139" s="101" t="s">
         <v>287</v>
       </c>
       <c r="B139" s="27" t="s">
@@ -4174,7 +4174,7 @@
       <c r="D139" s="27"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="51"/>
+      <c r="A140" s="102"/>
       <c r="B140" s="27" t="s">
         <v>283</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="D140" s="27"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="52"/>
+      <c r="A141" s="103"/>
       <c r="B141" s="27" t="s">
         <v>285</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="D141" s="27"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="53" t="s">
+      <c r="A142" s="104" t="s">
         <v>296</v>
       </c>
       <c r="B142" s="28" t="s">
@@ -4206,7 +4206,7 @@
       <c r="D142" s="28"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="54"/>
+      <c r="A143" s="105"/>
       <c r="B143" s="28" t="s">
         <v>290</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="D143" s="28"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="54"/>
+      <c r="A144" s="105"/>
       <c r="B144" s="28" t="s">
         <v>292</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="D144" s="28"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="55"/>
+      <c r="A145" s="106"/>
       <c r="B145" s="28" t="s">
         <v>294</v>
       </c>
@@ -4236,7 +4236,7 @@
       <c r="D145" s="28"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="56" t="s">
+      <c r="A146" s="107" t="s">
         <v>303</v>
       </c>
       <c r="B146" s="29" t="s">
@@ -4248,7 +4248,7 @@
       <c r="D146" s="29"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="57"/>
+      <c r="A147" s="108"/>
       <c r="B147" s="29" t="s">
         <v>298</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="D147" s="29"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="57"/>
+      <c r="A148" s="108"/>
       <c r="B148" s="29" t="s">
         <v>299</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="D148" s="29"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="57"/>
+      <c r="A149" s="108"/>
       <c r="B149" s="29" t="s">
         <v>301</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="D149" s="29"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="58"/>
+      <c r="A150" s="109"/>
       <c r="B150" s="29" t="s">
         <v>302</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="D150" s="29"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="59" t="s">
+      <c r="A151" s="110" t="s">
         <v>317</v>
       </c>
       <c r="B151" s="10" t="s">
@@ -4294,7 +4294,7 @@
       <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="60"/>
+      <c r="A152" s="42"/>
       <c r="B152" s="10" t="s">
         <v>306</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="60"/>
+      <c r="A153" s="42"/>
       <c r="B153" s="10" t="s">
         <v>307</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="D153" s="10"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="60"/>
+      <c r="A154" s="42"/>
       <c r="B154" s="10" t="s">
         <v>309</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="D154" s="10"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="60"/>
+      <c r="A155" s="42"/>
       <c r="B155" s="10" t="s">
         <v>311</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="D155" s="10"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="60"/>
+      <c r="A156" s="42"/>
       <c r="B156" s="10" t="s">
         <v>313</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="61"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="10" t="s">
         <v>315</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="62" t="s">
+      <c r="A158" s="111" t="s">
         <v>325</v>
       </c>
       <c r="B158" s="30" t="s">
@@ -4364,7 +4364,7 @@
       <c r="D158" s="30"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="63"/>
+      <c r="A159" s="112"/>
       <c r="B159" s="30" t="s">
         <v>320</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="D159" s="30"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="63"/>
+      <c r="A160" s="112"/>
       <c r="B160" s="30" t="s">
         <v>321</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="D160" s="30"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="64"/>
+      <c r="A161" s="113"/>
       <c r="B161" s="30" t="s">
         <v>323</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="D162" s="31"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="65" t="s">
+      <c r="A163" s="114" t="s">
         <v>348</v>
       </c>
       <c r="B163" s="32" t="s">
@@ -4414,7 +4414,7 @@
       <c r="D163" s="32"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="66"/>
+      <c r="A164" s="115"/>
       <c r="B164" s="32" t="s">
         <v>330</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="D164" s="32"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="66"/>
+      <c r="A165" s="115"/>
       <c r="B165" s="32" t="s">
         <v>332</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="D165" s="32"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="66"/>
+      <c r="A166" s="115"/>
       <c r="B166" s="32" t="s">
         <v>334</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="D166" s="32"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="66"/>
+      <c r="A167" s="115"/>
       <c r="B167" s="32" t="s">
         <v>336</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="D167" s="32"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="66"/>
+      <c r="A168" s="115"/>
       <c r="B168" s="32" t="s">
         <v>338</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="D168" s="32"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="66"/>
+      <c r="A169" s="115"/>
       <c r="B169" s="32" t="s">
         <v>340</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="D169" s="32"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="66"/>
+      <c r="A170" s="115"/>
       <c r="B170" s="32" t="s">
         <v>342</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="D170" s="32"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="66"/>
+      <c r="A171" s="115"/>
       <c r="B171" s="32" t="s">
         <v>344</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="D171" s="32"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="67"/>
+      <c r="A172" s="116"/>
       <c r="B172" s="32" t="s">
         <v>346</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="D173" s="33"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="38" t="s">
+      <c r="A174" s="89" t="s">
         <v>392</v>
       </c>
       <c r="B174" s="34" t="s">
@@ -4523,12 +4523,12 @@
       <c r="C174" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D174" s="116" t="s">
+      <c r="D174" s="38" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="39"/>
+      <c r="A175" s="90"/>
       <c r="B175" s="34" t="s">
         <v>297</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="D175" s="34"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
+      <c r="A176" s="90"/>
       <c r="B176" s="34" t="s">
         <v>353</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="D176" s="34"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
+      <c r="A177" s="90"/>
       <c r="B177" s="34" t="s">
         <v>355</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="D177" s="34"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
+      <c r="A178" s="90"/>
       <c r="B178" s="34" t="s">
         <v>357</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="D178" s="34"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
+      <c r="A179" s="90"/>
       <c r="B179" s="34" t="s">
         <v>359</v>
       </c>
@@ -4578,7 +4578,7 @@
       <c r="D179" s="34"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
+      <c r="A180" s="90"/>
       <c r="B180" s="34" t="s">
         <v>361</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="D180" s="34"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="39"/>
+      <c r="A181" s="90"/>
       <c r="B181" s="34" t="s">
         <v>363</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="D181" s="34"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="39"/>
+      <c r="A182" s="90"/>
       <c r="B182" s="34" t="s">
         <v>365</v>
       </c>
@@ -4608,7 +4608,7 @@
       <c r="D182" s="34"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="39"/>
+      <c r="A183" s="90"/>
       <c r="B183" s="34" t="s">
         <v>367</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="D183" s="34"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="39"/>
+      <c r="A184" s="90"/>
       <c r="B184" s="34" t="s">
         <v>369</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="D184" s="34"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="39"/>
+      <c r="A185" s="90"/>
       <c r="B185" s="34" t="s">
         <v>371</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="D185" s="34"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="39"/>
+      <c r="A186" s="90"/>
       <c r="B186" s="34" t="s">
         <v>373</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="D186" s="34"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
+      <c r="A187" s="90"/>
       <c r="B187" s="34" t="s">
         <v>375</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="D187" s="34"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="39"/>
+      <c r="A188" s="90"/>
       <c r="B188" s="34" t="s">
         <v>377</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="D188" s="34"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="39"/>
+      <c r="A189" s="90"/>
       <c r="B189" s="34" t="s">
         <v>379</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="D189" s="34"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="39"/>
+      <c r="A190" s="90"/>
       <c r="B190" s="34" t="s">
         <v>381</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="D190" s="34"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
+      <c r="A191" s="90"/>
       <c r="B191" s="34" t="s">
         <v>383</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="D191" s="34"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
+      <c r="A192" s="90"/>
       <c r="B192" s="34" t="s">
         <v>385</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="D192" s="34"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="39"/>
+      <c r="A193" s="90"/>
       <c r="B193" s="34" t="s">
         <v>387</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="D193" s="34"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="39"/>
+      <c r="A194" s="90"/>
       <c r="B194" s="34" t="s">
         <v>389</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="D194" s="34"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="40"/>
+      <c r="A195" s="91"/>
       <c r="B195" s="34" t="s">
         <v>390</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="D195" s="34"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="41" t="s">
+      <c r="A196" s="92" t="s">
         <v>407</v>
       </c>
       <c r="B196" s="35" t="s">
@@ -4748,7 +4748,7 @@
       <c r="D196" s="35"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="42"/>
+      <c r="A197" s="93"/>
       <c r="B197" s="35" t="s">
         <v>395</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="D197" s="35"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="42"/>
+      <c r="A198" s="93"/>
       <c r="B198" s="35" t="s">
         <v>397</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="D198" s="35"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="42"/>
+      <c r="A199" s="93"/>
       <c r="B199" s="35" t="s">
         <v>399</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="D199" s="35"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="42"/>
+      <c r="A200" s="93"/>
       <c r="B200" s="35" t="s">
         <v>401</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="D200" s="35"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="42"/>
+      <c r="A201" s="93"/>
       <c r="B201" s="35" t="s">
         <v>403</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="D201" s="35"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="43"/>
+      <c r="A202" s="94"/>
       <c r="B202" s="35" t="s">
         <v>405</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="D202" s="35"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="44" t="s">
+      <c r="A203" s="95" t="s">
         <v>416</v>
       </c>
       <c r="B203" s="36" t="s">
@@ -4820,7 +4820,7 @@
       <c r="D203" s="36"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="45"/>
+      <c r="A204" s="96"/>
       <c r="B204" s="36" t="s">
         <v>410</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="D204" s="36"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="45"/>
+      <c r="A205" s="96"/>
       <c r="B205" s="36" t="s">
         <v>412</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="D205" s="36"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="46"/>
+      <c r="A206" s="97"/>
       <c r="B206" s="36" t="s">
         <v>414</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="D206" s="36"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="47" t="s">
+      <c r="A207" s="98" t="s">
         <v>427</v>
       </c>
       <c r="B207" s="37" t="s">
@@ -4862,7 +4862,7 @@
       <c r="D207" s="37"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="48"/>
+      <c r="A208" s="99"/>
       <c r="B208" s="37" t="s">
         <v>419</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="D208" s="37"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="48"/>
+      <c r="A209" s="99"/>
       <c r="B209" s="37" t="s">
         <v>421</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="D209" s="37"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="48"/>
+      <c r="A210" s="99"/>
       <c r="B210" s="37" t="s">
         <v>423</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="D210" s="37"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="49"/>
+      <c r="A211" s="100"/>
       <c r="B211" s="37" t="s">
         <v>425</v>
       </c>
@@ -4903,12 +4903,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A174:A195"/>
+    <mergeCell ref="A196:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A163:A172"/>
     <mergeCell ref="A130:A137"/>
     <mergeCell ref="A50:A57"/>
     <mergeCell ref="A58:A62"/>
@@ -4921,16 +4925,12 @@
     <mergeCell ref="A100:A107"/>
     <mergeCell ref="A108:A120"/>
     <mergeCell ref="A121:A129"/>
-    <mergeCell ref="A174:A195"/>
-    <mergeCell ref="A196:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A163:A172"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
